--- a/tables/web/public/assets/people_data.xlsx
+++ b/tables/web/public/assets/people_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="198">
   <si>
     <t>#</t>
   </si>
@@ -46,6 +46,27 @@
     <t>Erica</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Table 12</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Pinchy</t>
+  </si>
+  <si>
     <t>Bedonna</t>
   </si>
   <si>
@@ -61,6 +82,78 @@
     <t>Hollander</t>
   </si>
   <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Weisskopf</t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Bleill</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Neena</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Dottie</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Speisman</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Sammie</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Kramer</t>
+  </si>
+  <si>
+    <t>Marci</t>
+  </si>
+  <si>
+    <t>Bryna</t>
+  </si>
+  <si>
     <t>Ira</t>
   </si>
   <si>
@@ -70,162 +163,204 @@
     <t>Debra</t>
   </si>
   <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Table 7</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Czako</t>
+  </si>
+  <si>
+    <t>Nosson</t>
+  </si>
+  <si>
+    <t>Eitan</t>
+  </si>
+  <si>
+    <t>Daphna</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
+    <t>Ori</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Deitch</t>
+  </si>
+  <si>
+    <t>Table 10</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Olswang</t>
+  </si>
+  <si>
+    <t>Table 11</t>
+  </si>
+  <si>
+    <t>Aliza</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Sakols</t>
+  </si>
+  <si>
+    <t>Reena</t>
+  </si>
+  <si>
     <t>Robin</t>
   </si>
   <si>
     <t>Fischer</t>
   </si>
   <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
     <t>Elly</t>
   </si>
   <si>
     <t>Bycer</t>
   </si>
   <si>
+    <t>Nava</t>
+  </si>
+  <si>
+    <t>Talia</t>
+  </si>
+  <si>
     <t>Sam</t>
   </si>
   <si>
     <t>Orgen</t>
   </si>
   <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Pepper</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Dottie</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Speisman</t>
-  </si>
-  <si>
-    <t>Marc</t>
-  </si>
-  <si>
-    <t>Sammie</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Kramer</t>
-  </si>
-  <si>
-    <t>Marci</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Table 3</t>
-  </si>
-  <si>
-    <t>Kayla</t>
-  </si>
-  <si>
-    <t>Pinchy</t>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Eliana</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Sweer</t>
+  </si>
+  <si>
+    <t>Morrine</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Reiser</t>
+  </si>
+  <si>
+    <t>Table 5</t>
+  </si>
+  <si>
+    <t>Robyn</t>
   </si>
   <si>
     <t>Joselyn</t>
   </si>
   <si>
-    <t>Reiser</t>
+    <t>Layla</t>
+  </si>
+  <si>
+    <t>Yossi</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>Abby</t>
   </si>
   <si>
     <t>Sophy</t>
   </si>
   <si>
-    <t>Miller</t>
+    <t>Evie</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Shneider</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>Karen</t>
   </si>
   <si>
     <t>Bella</t>
   </si>
   <si>
-    <t>Shneider</t>
+    <t>Hailey</t>
   </si>
   <si>
     <t>Emmy</t>
   </si>
   <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Garfinkel</t>
+  </si>
+  <si>
+    <t>Tova</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Navakas</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
     <t>Izzy</t>
   </si>
   <si>
-    <t>Navakas</t>
-  </si>
-  <si>
-    <t>Eliana</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Weisskopf</t>
-  </si>
-  <si>
-    <t>Table 4</t>
-  </si>
-  <si>
-    <t>Beth</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Lindsey</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Bleill</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Neena</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Bryna</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Table 5</t>
-  </si>
-  <si>
-    <t>Robyn</t>
-  </si>
-  <si>
-    <t>Layla</t>
-  </si>
-  <si>
-    <t>Yossi</t>
-  </si>
-  <si>
-    <t>Alisa</t>
-  </si>
-  <si>
-    <t>Evie</t>
-  </si>
-  <si>
     <t>Yecheal</t>
   </si>
   <si>
@@ -235,6 +370,57 @@
     <t>Shoshana</t>
   </si>
   <si>
+    <t>Ziggy</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Table 9</t>
+  </si>
+  <si>
+    <t>Sheryl</t>
+  </si>
+  <si>
+    <t>Segall</t>
+  </si>
+  <si>
+    <t>Table 8</t>
+  </si>
+  <si>
+    <t>Rochel</t>
+  </si>
+  <si>
+    <t>Rena</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
+    <t>Glenner</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Strahlberg</t>
+  </si>
+  <si>
+    <t>Margo</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Shyovitz</t>
+  </si>
+  <si>
+    <t>Adina</t>
+  </si>
+  <si>
+    <t>Keren</t>
+  </si>
+  <si>
     <t>Joshua</t>
   </si>
   <si>
@@ -244,37 +430,22 @@
     <t>Sigalle</t>
   </si>
   <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Table 6</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Garfinkel</t>
-  </si>
-  <si>
-    <t>Tova</t>
-  </si>
-  <si>
-    <t>Gabe</t>
-  </si>
-  <si>
-    <t>Lili</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Shyovitz</t>
-  </si>
-  <si>
-    <t>Adina</t>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Goldman</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Norby</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Zelda</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -286,73 +457,127 @@
     <t>Bayla</t>
   </si>
   <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Table 7</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Melody</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Czako</t>
-  </si>
-  <si>
-    <t>Nosson</t>
-  </si>
-  <si>
-    <t>Eitan</t>
-  </si>
-  <si>
-    <t>Daphna</t>
-  </si>
-  <si>
-    <t>Ami</t>
-  </si>
-  <si>
-    <t>Ori</t>
-  </si>
-  <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Olswang</t>
-  </si>
-  <si>
-    <t>Table 8</t>
-  </si>
-  <si>
-    <t>Aliza</t>
-  </si>
-  <si>
-    <t>Segall</t>
-  </si>
-  <si>
-    <t>Rochel</t>
-  </si>
-  <si>
-    <t>Strahlberg</t>
-  </si>
-  <si>
-    <t>Margo</t>
-  </si>
-  <si>
-    <t>Gerald</t>
-  </si>
-  <si>
-    <t>Norby</t>
-  </si>
-  <si>
-    <t>Erin</t>
+    <t>Rafi</t>
+  </si>
+  <si>
+    <t>Ackerman</t>
+  </si>
+  <si>
+    <t>Elianna</t>
+  </si>
+  <si>
+    <t>Amrani</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Anabelle</t>
+  </si>
+  <si>
+    <t>Ashman</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Cohn</t>
+  </si>
+  <si>
+    <t>Rinat</t>
+  </si>
+  <si>
+    <t>Dreytser</t>
+  </si>
+  <si>
+    <t>Aderet</t>
+  </si>
+  <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Nedivah</t>
+  </si>
+  <si>
+    <t>Finegold</t>
+  </si>
+  <si>
+    <t>Livvy</t>
+  </si>
+  <si>
+    <t>Gelman</t>
+  </si>
+  <si>
+    <t>Adella</t>
+  </si>
+  <si>
+    <t>Graber</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Isaacson</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Aliya</t>
+  </si>
+  <si>
+    <t>Kirschner</t>
+  </si>
+  <si>
+    <t>Danella</t>
+  </si>
+  <si>
+    <t>Levin</t>
+  </si>
+  <si>
+    <t>Lifsics</t>
+  </si>
+  <si>
+    <t>Meital</t>
+  </si>
+  <si>
+    <t>Matanky</t>
+  </si>
+  <si>
+    <t>Lital</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Gavi</t>
+  </si>
+  <si>
+    <t>Panner</t>
+  </si>
+  <si>
+    <t>Noga</t>
+  </si>
+  <si>
+    <t>Reuveni</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Rosenthal</t>
   </si>
   <si>
     <t>Mr</t>
@@ -364,244 +589,22 @@
     <t>Gertz</t>
   </si>
   <si>
-    <t>Mrs</t>
-  </si>
-  <si>
     <t>Mashie</t>
   </si>
   <si>
-    <t>Ziggy</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Table 9</t>
-  </si>
-  <si>
-    <t>Sheryl</t>
-  </si>
-  <si>
-    <t>Moe</t>
-  </si>
-  <si>
-    <t>Glenner</t>
-  </si>
-  <si>
-    <t>Sheila</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>Goldman</t>
-  </si>
-  <si>
     <t>Tziporah</t>
   </si>
   <si>
-    <t>Gelman</t>
-  </si>
-  <si>
     <t>Shaanan</t>
   </si>
   <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Deitch</t>
-  </si>
-  <si>
-    <t>Table 10</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Sakols</t>
-  </si>
-  <si>
-    <t>Reena</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Judy</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Sweer</t>
-  </si>
-  <si>
-    <t>Morrine</t>
-  </si>
-  <si>
-    <t>Ronald</t>
-  </si>
-  <si>
-    <t>Merle</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>Table 11</t>
-  </si>
-  <si>
-    <t>Nava</t>
-  </si>
-  <si>
-    <t>Talia</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>Hailey</t>
-  </si>
-  <si>
-    <t>Rena</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Keren</t>
-  </si>
-  <si>
-    <t>Zelda</t>
-  </si>
-  <si>
-    <t>Rafi</t>
-  </si>
-  <si>
-    <t>Ackerman</t>
-  </si>
-  <si>
-    <t>Elianna</t>
-  </si>
-  <si>
-    <t>Amrani</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Anabelle</t>
-  </si>
-  <si>
-    <t>Ashman</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Cohn</t>
-  </si>
-  <si>
-    <t>Rinat</t>
-  </si>
-  <si>
-    <t>Dreytser</t>
-  </si>
-  <si>
-    <t>Aderet</t>
-  </si>
-  <si>
-    <t>Engel</t>
-  </si>
-  <si>
-    <t>Nedivah</t>
-  </si>
-  <si>
-    <t>Finegold</t>
-  </si>
-  <si>
-    <t>Livvy</t>
-  </si>
-  <si>
-    <t>Adella</t>
-  </si>
-  <si>
-    <t>Graber</t>
-  </si>
-  <si>
-    <t>Ella</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Isaacson</t>
-  </si>
-  <si>
-    <t>Abigail</t>
-  </si>
-  <si>
-    <t>Katz</t>
-  </si>
-  <si>
-    <t>Aliya</t>
-  </si>
-  <si>
-    <t>Kirschner</t>
-  </si>
-  <si>
-    <t>Danella</t>
-  </si>
-  <si>
-    <t>Levin</t>
-  </si>
-  <si>
-    <t>Lifsics</t>
-  </si>
-  <si>
-    <t>Meital</t>
-  </si>
-  <si>
-    <t>Matanky</t>
-  </si>
-  <si>
-    <t>Lital</t>
-  </si>
-  <si>
-    <t>Near</t>
-  </si>
-  <si>
-    <t>Gavi</t>
-  </si>
-  <si>
-    <t>Panner</t>
-  </si>
-  <si>
-    <t>Noga</t>
-  </si>
-  <si>
-    <t>Reuveni</t>
-  </si>
-  <si>
-    <t>Brooke</t>
-  </si>
-  <si>
-    <t>Rosenthal</t>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Natanson</t>
+  </si>
+  <si>
+    <t>Jason</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E134"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,75 +1037,75 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1111,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1119,16 +1122,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1136,10 +1139,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1165,556 +1168,556 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
         <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -1723,49 +1726,49 @@
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
         <v>71</v>
       </c>
-      <c r="D46" t="s">
-        <v>72</v>
-      </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -1774,228 +1777,228 @@
         <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
         <v>76</v>
       </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
         <v>79</v>
       </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
         <v>83</v>
       </c>
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
         <v>87</v>
       </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
         <v>91</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>92</v>
@@ -2003,33 +2006,33 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
         <v>92</v>
@@ -2037,16 +2040,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
         <v>92</v>
@@ -2054,13 +2057,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
         <v>97</v>
@@ -2071,47 +2074,47 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
         <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
         <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
         <v>97</v>
@@ -2122,254 +2125,254 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
         <v>103</v>
       </c>
-      <c r="D70" t="s">
-        <v>104</v>
-      </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
         <v>113</v>
       </c>
-      <c r="D77" t="s">
-        <v>112</v>
-      </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
         <v>121</v>
@@ -2377,16 +2380,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
         <v>121</v>
@@ -2394,67 +2397,67 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
         <v>121</v>
@@ -2462,750 +2465,801 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D108" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D109" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="E109" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>157</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E111" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E112" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E113" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E116" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E117" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D119" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E120" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D121" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E121" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D122" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D123" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D124" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E126" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E127" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D128" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E128" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D129" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="E129" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D130" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E130" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="D131" t="s">
         <v>196</v>
       </c>
       <c r="E131" t="s">
-        <v>148</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" t="s">
+        <v>195</v>
+      </c>
+      <c r="D132" t="s">
+        <v>196</v>
+      </c>
+      <c r="E132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" t="s">
+        <v>196</v>
+      </c>
+      <c r="E134" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
